--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2186520.566568063</v>
+        <v>-2189374.499825088</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>313.3762306435316</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>341.4033652620856</v>
       </c>
       <c r="G2" t="n">
-        <v>318.6614541620522</v>
+        <v>413.3734762915973</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.0980462499686</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.68016260809934</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>214.6505085580951</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>22.34151256659352</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.3112714057301</v>
+        <v>104.5913653401303</v>
       </c>
       <c r="H3" t="n">
         <v>102.2661233681972</v>
       </c>
       <c r="I3" t="n">
-        <v>53.85659251710582</v>
+        <v>53.85659251710585</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>36.06804931538427</v>
+        <v>36.06804931538433</v>
       </c>
       <c r="S3" t="n">
         <v>152.5096588980035</v>
@@ -795,7 +795,7 @@
         <v>225.8734711758774</v>
       </c>
       <c r="V3" t="n">
-        <v>201.0806810838256</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>194.4309554782233</v>
+        <v>286.2718257109806</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>133.7138127199141</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>173.254628703115</v>
       </c>
       <c r="E5" t="n">
-        <v>94.13192033541448</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>17.69584188176898</v>
@@ -1108,16 +1108,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>61.87359051341512</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>40.91830998780883</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>296.0386998424535</v>
       </c>
       <c r="G8" t="n">
-        <v>147.0456385559503</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -1184,7 +1184,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>142.6617191947607</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>105.1948527521809</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>32.05158559392485</v>
+        <v>1.799772605713467</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>121.6381820844802</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>69.82863813027228</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>105.56838945123</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>176.7621441121403</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>73.56194264363209</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>132.7328787290205</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352493</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3035,13 +3035,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652575</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808191</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1829.336943720407</v>
+        <v>1338.36279618195</v>
       </c>
       <c r="C2" t="n">
-        <v>1460.374426779995</v>
+        <v>1338.36279618195</v>
       </c>
       <c r="D2" t="n">
-        <v>1102.108728173245</v>
+        <v>1338.36279618195</v>
       </c>
       <c r="E2" t="n">
-        <v>785.5670810585661</v>
+        <v>952.5745435837055</v>
       </c>
       <c r="F2" t="n">
-        <v>374.5811762689585</v>
+        <v>607.7226594805886</v>
       </c>
       <c r="G2" t="n">
-        <v>52.70091953961285</v>
+        <v>190.1736935294801</v>
       </c>
       <c r="H2" t="n">
-        <v>52.70091953961285</v>
+        <v>190.1736935294801</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>202.9773215020674</v>
+        <v>202.9773215020672</v>
       </c>
       <c r="K2" t="n">
-        <v>548.9474971529382</v>
+        <v>548.9474971529378</v>
       </c>
       <c r="L2" t="n">
-        <v>1030.430720365689</v>
+        <v>1030.430720365688</v>
       </c>
       <c r="M2" t="n">
-        <v>1582.780123547933</v>
+        <v>1582.780123547932</v>
       </c>
       <c r="N2" t="n">
-        <v>1921.943264360733</v>
+        <v>1696.461664823509</v>
       </c>
       <c r="O2" t="n">
-        <v>2392.946438360946</v>
+        <v>2074.365717271178</v>
       </c>
       <c r="P2" t="n">
         <v>2438.681646329268</v>
@@ -4352,28 +4352,28 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2606.07611576034</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S2" t="n">
-        <v>2606.07611576034</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T2" t="n">
-        <v>2606.07611576034</v>
+        <v>2418.227281467415</v>
       </c>
       <c r="U2" t="n">
-        <v>2606.07611576034</v>
+        <v>2395.660097056715</v>
       </c>
       <c r="V2" t="n">
-        <v>2606.07611576034</v>
+        <v>2064.597209713144</v>
       </c>
       <c r="W2" t="n">
-        <v>2606.07611576034</v>
+        <v>1711.82855444303</v>
       </c>
       <c r="X2" t="n">
-        <v>2606.07611576034</v>
+        <v>1338.36279618195</v>
       </c>
       <c r="Y2" t="n">
-        <v>2215.936783784528</v>
+        <v>1338.36279618195</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>977.2482374111001</v>
+        <v>945.2079282539287</v>
       </c>
       <c r="C3" t="n">
-        <v>802.7952081299732</v>
+        <v>770.7548989728017</v>
       </c>
       <c r="D3" t="n">
-        <v>653.8607984687219</v>
+        <v>621.8204893115504</v>
       </c>
       <c r="E3" t="n">
-        <v>494.6233434632665</v>
+        <v>462.5830343060949</v>
       </c>
       <c r="F3" t="n">
-        <v>348.0887854901514</v>
+        <v>316.0484763329799</v>
       </c>
       <c r="G3" t="n">
         <v>210.4006325550705</v>
@@ -4407,22 +4407,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>148.5111353690306</v>
+        <v>148.5111353690305</v>
       </c>
       <c r="K3" t="n">
-        <v>177.0663131205148</v>
+        <v>438.8868977629673</v>
       </c>
       <c r="L3" t="n">
-        <v>628.9167565407722</v>
+        <v>523.6053993327999</v>
       </c>
       <c r="M3" t="n">
-        <v>1208.184133243966</v>
+        <v>1102.872776035994</v>
       </c>
       <c r="N3" t="n">
-        <v>1818.490007132076</v>
+        <v>1713.178649924104</v>
       </c>
       <c r="O3" t="n">
-        <v>2310.384970558092</v>
+        <v>2057.417798960301</v>
       </c>
       <c r="P3" t="n">
         <v>2435.203805658289</v>
@@ -4443,16 +4443,16 @@
         <v>2018.424529204428</v>
       </c>
       <c r="V3" t="n">
-        <v>1815.312730129856</v>
+        <v>1783.272420972685</v>
       </c>
       <c r="W3" t="n">
-        <v>1561.075373401655</v>
+        <v>1529.035064244483</v>
       </c>
       <c r="X3" t="n">
-        <v>1353.223873196122</v>
+        <v>1321.183564038951</v>
       </c>
       <c r="Y3" t="n">
-        <v>1145.463574431168</v>
+        <v>1113.423265273997</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.70091953961285</v>
+        <v>200.614013122006</v>
       </c>
       <c r="C4" t="n">
-        <v>52.70091953961285</v>
+        <v>200.614013122006</v>
       </c>
       <c r="D4" t="n">
-        <v>52.70091953961285</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E4" t="n">
         <v>52.70091953961285</v>
@@ -4489,49 +4489,49 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>130.192449919618</v>
+        <v>130.1924499196179</v>
       </c>
       <c r="L4" t="n">
-        <v>284.8813640088559</v>
+        <v>284.8813640088557</v>
       </c>
       <c r="M4" t="n">
-        <v>458.3682580242854</v>
+        <v>458.3682580242851</v>
       </c>
       <c r="N4" t="n">
-        <v>633.1646378841555</v>
+        <v>633.1646378841551</v>
       </c>
       <c r="O4" t="n">
-        <v>778.6010907841611</v>
+        <v>778.6010907841606</v>
       </c>
       <c r="P4" t="n">
-        <v>879.5264189348578</v>
+        <v>879.5264189348572</v>
       </c>
       <c r="Q4" t="n">
-        <v>879.5264189348578</v>
+        <v>879.5264189348572</v>
       </c>
       <c r="R4" t="n">
-        <v>879.5264189348578</v>
+        <v>879.5264189348572</v>
       </c>
       <c r="S4" t="n">
-        <v>879.5264189348578</v>
+        <v>879.5264189348572</v>
       </c>
       <c r="T4" t="n">
-        <v>879.5264189348578</v>
+        <v>879.5264189348572</v>
       </c>
       <c r="U4" t="n">
-        <v>683.1315144114</v>
+        <v>590.3629586207354</v>
       </c>
       <c r="V4" t="n">
-        <v>683.1315144114</v>
+        <v>335.6784704148486</v>
       </c>
       <c r="W4" t="n">
-        <v>683.1315144114</v>
+        <v>335.6784704148486</v>
       </c>
       <c r="X4" t="n">
-        <v>455.1419635133826</v>
+        <v>200.614013122006</v>
       </c>
       <c r="Y4" t="n">
-        <v>234.3493843698525</v>
+        <v>200.614013122006</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>975.857353906343</v>
+        <v>2248.446136916521</v>
       </c>
       <c r="C5" t="n">
-        <v>975.857353906343</v>
+        <v>1879.483619976109</v>
       </c>
       <c r="D5" t="n">
-        <v>975.857353906343</v>
+        <v>1704.478944518417</v>
       </c>
       <c r="E5" t="n">
-        <v>880.774606092793</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="F5" t="n">
-        <v>469.7887013031854</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G5" t="n">
-        <v>52.70091953961285</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H5" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>214.5647737753057</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>297.1279283498981</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L5" t="n">
-        <v>849.9411865960973</v>
+        <v>683.1408478992852</v>
       </c>
       <c r="M5" t="n">
-        <v>1481.658997579409</v>
+        <v>1314.858658882597</v>
       </c>
       <c r="N5" t="n">
-        <v>2108.966665639256</v>
+        <v>1942.166326942443</v>
       </c>
       <c r="O5" t="n">
-        <v>2279.135690956215</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P5" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4592,25 +4592,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="W5" t="n">
-        <v>2126.062284207356</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="X5" t="n">
-        <v>1752.596525946276</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="Y5" t="n">
-        <v>1362.457193970465</v>
+        <v>2635.045976980643</v>
       </c>
     </row>
     <row r="6">
@@ -4656,10 +4656,10 @@
         <v>1184.647451923042</v>
       </c>
       <c r="N6" t="n">
-        <v>1836.821331225751</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O6" t="n">
-        <v>2295.642893392876</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P6" t="n">
         <v>2404.332520920175</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>349.3418250248841</v>
+        <v>536.5182771371284</v>
       </c>
       <c r="C7" t="n">
-        <v>349.3418250248841</v>
+        <v>367.5820942092215</v>
       </c>
       <c r="D7" t="n">
-        <v>349.3418250248841</v>
+        <v>217.4654547968858</v>
       </c>
       <c r="E7" t="n">
-        <v>349.3418250248841</v>
+        <v>217.4654547968858</v>
       </c>
       <c r="F7" t="n">
-        <v>349.3418250248841</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="G7" t="n">
-        <v>349.3418250248841</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="H7" t="n">
-        <v>195.0871819246492</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="I7" t="n">
         <v>70.57550729897547</v>
@@ -4756,19 +4756,19 @@
         <v>827.0064043113226</v>
       </c>
       <c r="U7" t="n">
-        <v>827.0064043113226</v>
+        <v>764.5078280351457</v>
       </c>
       <c r="V7" t="n">
-        <v>572.3219161054358</v>
+        <v>764.5078280351457</v>
       </c>
       <c r="W7" t="n">
-        <v>572.3219161054358</v>
+        <v>764.5078280351457</v>
       </c>
       <c r="X7" t="n">
-        <v>530.9902898551238</v>
+        <v>536.5182771371284</v>
       </c>
       <c r="Y7" t="n">
-        <v>530.9902898551238</v>
+        <v>536.5182771371284</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1408.399556799664</v>
+        <v>1206.733776870417</v>
       </c>
       <c r="C8" t="n">
-        <v>1408.399556799664</v>
+        <v>1206.733776870417</v>
       </c>
       <c r="D8" t="n">
-        <v>1050.133858192914</v>
+        <v>1206.733776870417</v>
       </c>
       <c r="E8" t="n">
-        <v>1050.133858192914</v>
+        <v>1206.733776870417</v>
       </c>
       <c r="F8" t="n">
-        <v>639.147953403306</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G8" t="n">
         <v>490.6170053669925</v>
@@ -4805,16 +4805,16 @@
         <v>241.3408185533492</v>
       </c>
       <c r="K8" t="n">
-        <v>323.9039731279416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L8" t="n">
-        <v>876.7172313741407</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M8" t="n">
-        <v>1163.078276489641</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N8" t="n">
-        <v>1790.385944549488</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O8" t="n">
         <v>1960.554969866447</v>
@@ -4832,22 +4832,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.7680521339</v>
+        <v>1932.968190401611</v>
       </c>
       <c r="W8" t="n">
-        <v>1794.999396863786</v>
+        <v>1580.199535131497</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.999396863786</v>
+        <v>1206.733776870417</v>
       </c>
       <c r="Y8" t="n">
-        <v>1794.999396863786</v>
+        <v>1206.733776870417</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4887,16 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L9" t="n">
-        <v>914.5356689828393</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M9" t="n">
-        <v>1094.033005337444</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N9" t="n">
-        <v>1746.206884640153</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O9" t="n">
-        <v>2295.642893392876</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P9" t="n">
         <v>2404.332520920175</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.5433034395659</v>
+        <v>815.9002126959554</v>
       </c>
       <c r="C10" t="n">
-        <v>511.6071205116589</v>
+        <v>646.9640297680485</v>
       </c>
       <c r="D10" t="n">
-        <v>511.6071205116589</v>
+        <v>646.9640297680485</v>
       </c>
       <c r="E10" t="n">
-        <v>363.6940269292658</v>
+        <v>646.9640297680485</v>
       </c>
       <c r="F10" t="n">
-        <v>363.6940269292658</v>
+        <v>500.0740822701381</v>
       </c>
       <c r="G10" t="n">
-        <v>195.0871819246492</v>
+        <v>331.4672372655215</v>
       </c>
       <c r="H10" t="n">
-        <v>195.0871819246492</v>
+        <v>177.2125941652866</v>
       </c>
       <c r="I10" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
         <v>52.70091953961285</v>
@@ -4984,28 +4984,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R10" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T10" t="n">
-        <v>908.5328543375832</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="U10" t="n">
-        <v>908.5328543375832</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="V10" t="n">
-        <v>908.5328543375832</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="W10" t="n">
-        <v>908.5328543375832</v>
+        <v>815.9002126959554</v>
       </c>
       <c r="X10" t="n">
-        <v>680.5433034395659</v>
+        <v>815.9002126959554</v>
       </c>
       <c r="Y10" t="n">
-        <v>680.5433034395659</v>
+        <v>815.9002126959554</v>
       </c>
     </row>
     <row r="11">
@@ -5033,34 +5033,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
         <v>1344.266747951538</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>989.3306680894869</v>
+        <v>513.8536007400685</v>
       </c>
       <c r="C13" t="n">
-        <v>820.3944851615801</v>
+        <v>344.9174178121616</v>
       </c>
       <c r="D13" t="n">
-        <v>670.2778457492443</v>
+        <v>344.9174178121616</v>
       </c>
       <c r="E13" t="n">
-        <v>522.3647521668512</v>
+        <v>344.9174178121616</v>
       </c>
       <c r="F13" t="n">
-        <v>375.4748046689408</v>
+        <v>344.9174178121616</v>
       </c>
       <c r="G13" t="n">
-        <v>208.2787053838207</v>
+        <v>177.7213185270415</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5209,40 +5209,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854705</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817744</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919727</v>
+        <v>916.2946447138384</v>
       </c>
       <c r="Y13" t="n">
-        <v>1170.979132919727</v>
+        <v>695.5020655703082</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192412</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111694</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075786</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,19 +5364,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>866.4638174991043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1565.519003264322</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1276.101833227361</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1048.112282329344</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1048.112282329344</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,10 +5528,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511906</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1868.398285759938</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1578.981115722978</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1350.99156482496</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>1130.19898568143</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190824</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190824</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>634.4644740681601</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1554.312238976908</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1264.895068939947</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1036.90551804193</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>816.1129388983999</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6224,19 +6224,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6382,13 +6382,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6421,13 +6421,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6649,19 +6649,19 @@
         <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6683,10 +6683,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6886,22 +6886,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656826</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150032</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942665</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580125</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319308</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656802</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150007</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942639</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580098</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345466</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438401</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954146</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380725</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931272</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.38532953243</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838284</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518749</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582388</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400514</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,7 +7570,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7594,13 +7594,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,16 +7643,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,31 +7825,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -7988,13 +7988,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>227.7591914517397</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>286.7606645430043</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,10 +8070,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>244.7150320142866</v>
       </c>
       <c r="P3" t="n">
-        <v>62.94037308661227</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>142.0501052952621</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>391.2261292428723</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8228,13 +8228,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8304,13 +8304,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>458.0981188384286</v>
+        <v>48.10560617263525</v>
       </c>
       <c r="O6" t="n">
-        <v>302.3325752508733</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M8" t="n">
-        <v>100.6683154445382</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8535,19 +8535,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>279.310601277603</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>458.0981188384286</v>
+        <v>48.10560617263525</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>65.47268047962581</v>
       </c>
       <c r="G2" t="n">
-        <v>94.71202212954518</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>319.7167556102116</v>
       </c>
       <c r="I2" t="n">
-        <v>136.0980462499685</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>28.68016260809944</v>
       </c>
       <c r="S2" t="n">
         <v>165.0570294548799</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,16 +22705,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22750,25 +22750,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>138.3818529281556</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>208.9350332964224</v>
       </c>
       <c r="T4" t="n">
-        <v>224.2479705299724</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>91.84087023275731</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>91.99584266912302</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>108.243127252299</v>
+        <v>138.4949402405104</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,10 +23659,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>130.4994612393478</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,16 +23938,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>146.569253872598</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,19 +24178,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>109.4223302771039</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>152.147712745405</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>119.4047645948075</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-3.501643547353501e-13</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48691.3667421549</v>
+        <v>48691.36674215488</v>
       </c>
       <c r="C2" t="n">
+        <v>61578.1327398213</v>
+      </c>
+      <c r="D2" t="n">
         <v>61578.13273982127</v>
       </c>
-      <c r="D2" t="n">
-        <v>61578.1327398213</v>
-      </c>
       <c r="E2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="F2" t="n">
         <v>60535.99497675046</v>
       </c>
       <c r="G2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="H2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="I2" t="n">
-        <v>60535.99497675045</v>
+        <v>60535.99497675047</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982121</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982119</v>
+        <v>61578.13273982121</v>
       </c>
       <c r="L2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="N2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="P2" t="n">
         <v>61578.13273982125</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>683207.6005908845</v>
+        <v>683207.600590884</v>
       </c>
       <c r="C3" t="n">
-        <v>103419.2281619174</v>
+        <v>103419.2281619178</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191788.7103939126</v>
+        <v>191788.7103939127</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157138</v>
+        <v>128077.5968157137</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363174</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112907.4414570505</v>
+        <v>112907.4414570506</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26424,40 +26424,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670735</v>
       </c>
       <c r="F4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707383</v>
+        <v>6897.424496707415</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707355</v>
+        <v>6897.424496707425</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707422</v>
       </c>
       <c r="J4" t="n">
+        <v>14888.28375980084</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14888.28375980085</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14888.28375980084</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14888.28375980084</v>
+      </c>
+      <c r="N4" t="n">
         <v>14888.28375980083</v>
       </c>
-      <c r="K4" t="n">
-        <v>14888.28375980086</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14888.28375980086</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
+        <v>14888.28375980084</v>
+      </c>
+      <c r="P4" t="n">
         <v>14888.28375980085</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14888.28375980084</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14888.28375980085</v>
-      </c>
-      <c r="P4" t="n">
-        <v>14888.28375980083</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84142.20015004485</v>
+        <v>84142.20015004484</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-831565.8754558249</v>
+        <v>-831995.4343224134</v>
       </c>
       <c r="C6" t="n">
-        <v>-318350.9856811905</v>
+        <v>-318350.9856811909</v>
       </c>
       <c r="D6" t="n">
         <v>-214931.7575192731</v>
       </c>
       <c r="E6" t="n">
-        <v>-823172.3066204485</v>
+        <v>-823207.0445458841</v>
       </c>
       <c r="F6" t="n">
-        <v>-47483.95934386401</v>
+        <v>-47518.69726929969</v>
       </c>
       <c r="G6" t="n">
-        <v>-47483.95934386404</v>
+        <v>-47518.69726929975</v>
       </c>
       <c r="H6" t="n">
-        <v>-47483.95934386403</v>
+        <v>-47518.69726929977</v>
       </c>
       <c r="I6" t="n">
-        <v>-47483.95934386402</v>
+        <v>-47518.69726929974</v>
       </c>
       <c r="J6" t="n">
-        <v>-248262.9772678076</v>
+        <v>-248262.9772678077</v>
       </c>
       <c r="K6" t="n">
-        <v>-56474.26687389506</v>
+        <v>-56474.26687389504</v>
       </c>
       <c r="L6" t="n">
-        <v>-56474.26687389502</v>
+        <v>-56474.26687389499</v>
       </c>
       <c r="M6" t="n">
-        <v>-184551.8636896088</v>
+        <v>-184551.8636896087</v>
       </c>
       <c r="N6" t="n">
         <v>-56474.26687389499</v>
       </c>
       <c r="O6" t="n">
-        <v>-75901.9848675268</v>
+        <v>-75901.98486752673</v>
       </c>
       <c r="P6" t="n">
-        <v>-56474.26687389499</v>
+        <v>-56474.26687389507</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203978</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>479.903729355004</v>
+        <v>479.9037293550036</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>479.903729355004</v>
+        <v>479.9037293550036</v>
       </c>
       <c r="C3" t="n">
-        <v>113.5723709830611</v>
+        <v>113.5723709830615</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.9467938544875</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451609</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.9467938544875</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.9467938544875</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>68.55413942873014</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>214.6505085580951</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1913120099535</v>
+        <v>228.84979944336</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>31.71990606559976</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>31.71990606559967</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.1255791907694</v>
@@ -27558,7 +27558,7 @@
         <v>129.425531702564</v>
       </c>
       <c r="J4" t="n">
-        <v>32.17538826103564</v>
+        <v>32.17538826103569</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.69658011908879</v>
+        <v>13.69658011908885</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>138.3818529281556</v>
       </c>
       <c r="S4" t="n">
-        <v>208.9350332964224</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>224.2479705299725</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>181.4284129175679</v>
       </c>
       <c r="E5" t="n">
-        <v>287.7984497368473</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>224.3870641446819</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>184.7913454012283</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>110.837345899258</v>
       </c>
       <c r="G8" t="n">
-        <v>265.8712653899864</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>80.71118552599799</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>181.3281455844101</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-7.333857380491618e-13</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="29">
@@ -29524,10 +29524,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29755,13 +29755,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203978</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.929261223537703</v>
+        <v>1.929261223537701</v>
       </c>
       <c r="H2" t="n">
-        <v>19.75804650555551</v>
+        <v>19.75804650555549</v>
       </c>
       <c r="I2" t="n">
-        <v>74.37784332043736</v>
+        <v>74.37784332043731</v>
       </c>
       <c r="J2" t="n">
-        <v>163.7436347712333</v>
+        <v>163.7436347712331</v>
       </c>
       <c r="K2" t="n">
-        <v>245.4092623635843</v>
+        <v>245.4092623635841</v>
       </c>
       <c r="L2" t="n">
-        <v>304.4518905334263</v>
+        <v>304.4518905334261</v>
       </c>
       <c r="M2" t="n">
-        <v>338.761389817515</v>
+        <v>338.7613898175147</v>
       </c>
       <c r="N2" t="n">
-        <v>344.2429032688914</v>
+        <v>344.2429032688912</v>
       </c>
       <c r="O2" t="n">
-        <v>325.0588119773384</v>
+        <v>325.0588119773381</v>
       </c>
       <c r="P2" t="n">
-        <v>277.4301755212513</v>
+        <v>277.4301755212511</v>
       </c>
       <c r="Q2" t="n">
-        <v>208.3385079533073</v>
+        <v>208.3385079533071</v>
       </c>
       <c r="R2" t="n">
-        <v>121.1889553330503</v>
+        <v>121.1889553330502</v>
       </c>
       <c r="S2" t="n">
-        <v>43.96304013136545</v>
+        <v>43.96304013136541</v>
       </c>
       <c r="T2" t="n">
-        <v>8.445341006036299</v>
+        <v>8.445341006036292</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1543408978830162</v>
+        <v>0.1543408978830161</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.032245757480575</v>
+        <v>1.032245757480574</v>
       </c>
       <c r="H3" t="n">
-        <v>9.969320868299235</v>
+        <v>9.969320868299228</v>
       </c>
       <c r="I3" t="n">
-        <v>35.54004033430926</v>
+        <v>35.54004033430923</v>
       </c>
       <c r="J3" t="n">
-        <v>97.52458711354852</v>
+        <v>97.52458711354844</v>
       </c>
       <c r="K3" t="n">
-        <v>166.685052864747</v>
+        <v>166.6850528647469</v>
       </c>
       <c r="L3" t="n">
-        <v>224.1286237898064</v>
+        <v>224.1286237898062</v>
       </c>
       <c r="M3" t="n">
-        <v>261.5475324984772</v>
+        <v>261.5475324984769</v>
       </c>
       <c r="N3" t="n">
-        <v>268.4699174247394</v>
+        <v>268.4699174247392</v>
       </c>
       <c r="O3" t="n">
-        <v>245.597524587933</v>
+        <v>245.5975245879328</v>
       </c>
       <c r="P3" t="n">
-        <v>197.1136657420582</v>
+        <v>197.113665742058</v>
       </c>
       <c r="Q3" t="n">
-        <v>131.7652654636607</v>
+        <v>131.7652654636606</v>
       </c>
       <c r="R3" t="n">
-        <v>64.08978483725886</v>
+        <v>64.0897848372588</v>
       </c>
       <c r="S3" t="n">
-        <v>19.17351220583435</v>
+        <v>19.17351220583433</v>
       </c>
       <c r="T3" t="n">
-        <v>4.16067478563442</v>
+        <v>4.160674785634416</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06791090509740626</v>
+        <v>0.0679109050974062</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8654001676893514</v>
+        <v>0.8654001676893506</v>
       </c>
       <c r="H4" t="n">
-        <v>7.694194218183511</v>
+        <v>7.694194218183505</v>
       </c>
       <c r="I4" t="n">
-        <v>26.02494322469432</v>
+        <v>26.0249432246943</v>
       </c>
       <c r="J4" t="n">
-        <v>61.18379185563714</v>
+        <v>61.18379185563708</v>
       </c>
       <c r="K4" t="n">
-        <v>100.5437649369992</v>
+        <v>100.5437649369991</v>
       </c>
       <c r="L4" t="n">
-        <v>128.6614031126514</v>
+        <v>128.6614031126513</v>
       </c>
       <c r="M4" t="n">
-        <v>135.6554099224317</v>
+        <v>135.6554099224315</v>
       </c>
       <c r="N4" t="n">
-        <v>132.429827479226</v>
+        <v>132.4298274792259</v>
       </c>
       <c r="O4" t="n">
-        <v>122.320380065764</v>
+        <v>122.3203800657639</v>
       </c>
       <c r="P4" t="n">
         <v>104.6662166449011</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.46546313260559</v>
+        <v>72.46546313260554</v>
       </c>
       <c r="R4" t="n">
-        <v>38.91153844901392</v>
+        <v>38.91153844901388</v>
       </c>
       <c r="S4" t="n">
-        <v>15.08156474054987</v>
+        <v>15.08156474054986</v>
       </c>
       <c r="T4" t="n">
-        <v>3.697618898309046</v>
+        <v>3.697618898309043</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04720364551032831</v>
+        <v>0.04720364551032827</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31850,7 +31850,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>339.9772972286967</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>518.0009690113193</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>169.2687847673337</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33269,16 +33269,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>726.7533607666135</v>
+        <v>595.3857163736981</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>491.1355220041058</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M36" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>151.7943454166208</v>
+        <v>151.7943454166206</v>
       </c>
       <c r="K2" t="n">
-        <v>349.4648238897685</v>
+        <v>349.4648238897682</v>
       </c>
       <c r="L2" t="n">
-        <v>486.3466901138895</v>
+        <v>486.3466901138893</v>
       </c>
       <c r="M2" t="n">
-        <v>557.9286900830747</v>
+        <v>557.9286900830745</v>
       </c>
       <c r="N2" t="n">
-        <v>342.5890311240402</v>
+        <v>114.8298396723002</v>
       </c>
       <c r="O2" t="n">
-        <v>475.760781818397</v>
+        <v>381.7212650986556</v>
       </c>
       <c r="P2" t="n">
-        <v>46.19717976598179</v>
+        <v>367.9958879374642</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.3478087387625</v>
+        <v>198.3478087387623</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>96.77799578729066</v>
+        <v>96.77799578729058</v>
       </c>
       <c r="K3" t="n">
-        <v>28.84361389038801</v>
+        <v>293.3088509029665</v>
       </c>
       <c r="L3" t="n">
-        <v>456.4145893133914</v>
+        <v>85.57424400993199</v>
       </c>
       <c r="M3" t="n">
-        <v>585.1185623264587</v>
+        <v>585.1185623264585</v>
       </c>
       <c r="N3" t="n">
-        <v>616.4705796849596</v>
+        <v>616.4705796849594</v>
       </c>
       <c r="O3" t="n">
-        <v>496.8635994202181</v>
+        <v>347.716312157775</v>
       </c>
       <c r="P3" t="n">
-        <v>126.0796314143402</v>
+        <v>381.6020269676649</v>
       </c>
       <c r="Q3" t="n">
-        <v>201.8607791134883</v>
+        <v>201.8607791134882</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>78.27427311111632</v>
+        <v>78.27427311111623</v>
       </c>
       <c r="L4" t="n">
-        <v>156.2514283729676</v>
+        <v>156.2514283729674</v>
       </c>
       <c r="M4" t="n">
-        <v>175.2392868842722</v>
+        <v>175.2392868842721</v>
       </c>
       <c r="N4" t="n">
-        <v>176.5619998584546</v>
+        <v>176.5619998584545</v>
       </c>
       <c r="O4" t="n">
-        <v>146.9055079798037</v>
+        <v>146.9055079798036</v>
       </c>
       <c r="P4" t="n">
-        <v>101.9447759097946</v>
+        <v>101.9447759097945</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>163.498842662316</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
         <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>531.9621452441381</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
@@ -34948,13 +34948,13 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35024,13 +35024,13 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>658.7614942451606</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O6" t="n">
-        <v>463.4561234011366</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
         <v>233.0438950105733</v>
@@ -35173,19 +35173,19 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M8" t="n">
-        <v>289.253580924748</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
@@ -35255,19 +35255,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>417.926356849011</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
         <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>658.7614942451606</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35416,7 +35416,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35498,7 +35498,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35577,13 +35577,13 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899044</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066232</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>197.8432633066783</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>386.659256927986</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>27.13475084531539</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>584.6193268445951</v>
+        <v>453.2516824516798</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>349.0014880820875</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M36" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
